--- a/biology/Botanique/Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal/Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal.xlsx
+++ b/biology/Botanique/Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal/Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Corne-de-cerf : variété de plantain (Plantago coronopus) ou de fougère (Platycerium bifurcatum)</t>
         </is>
@@ -518,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,7 +550,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dent de chien
 Dent-de-lion</t>
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,7 +583,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gueule-de-loup </t>
         </is>
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,7 +615,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Langue-d'agneau : variété de plantain (Plantago)
 Langue-de-bœuf
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Œil de bœuf 
 Œil-de-vache : autre nom de l'anthémis fétide, une Astéracée
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pain d'oiseaux, variété de plantain
 Pas-d'âne : autre nom du tussilage, une Astéracée
@@ -706,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +748,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Queue-de-cheval : la grande queue-de-cheval, une Equisetaceae
 Queue-d'écureuil : l'orge queue-d'écureuil, une Poaceae
@@ -742,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_dont_le_nom_se_r%C3%A9f%C3%A8re_%C3%A0_un_animal</t>
+          <t>Liste_des_plantes_dont_le_nom_se_réfère_à_un_animal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -760,7 +786,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris-rose : ancien nom vernaculaire (XIXe siècle) donné à un champignon du genre Agaricus.
 Souris de terre  : entre autres, l'un des noms donnés à une plante tubéreuse de l'espèce Lathyrus tuberosus
